--- a/Nostale Vendetta Mall List.xlsx
+++ b/Nostale Vendetta Mall List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David1234\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4589BA64-453B-4B59-BF70-7CFF8BC52B2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E9931-06E4-4FF9-9D2B-53FF37B5AB06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{211B6716-264D-47DB-8331-7592F27DE674}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Item Name</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>Morning Glory Hat</t>
-  </si>
-  <si>
-    <t>Penguin Hat</t>
   </si>
   <si>
     <t>Old Gent's Hat</t>
@@ -677,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6392B59-4EA3-45F0-B9DB-A2E71E61FB29}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="0">C3-C3/100*15</f>
+        <f t="shared" ref="E3:E65" si="0">C3-C3/100*15</f>
         <v>8500000</v>
       </c>
     </row>
@@ -1566,14 +1563,14 @@
         <v>300</v>
       </c>
       <c r="C49" s="1">
-        <v>6000000</v>
+        <v>6500000</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="0"/>
-        <v>5100000</v>
+        <v>5525000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,14 +1581,14 @@
         <v>300</v>
       </c>
       <c r="C50" s="1">
-        <v>6500000</v>
+        <v>6000000</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="0"/>
-        <v>5525000</v>
+        <v>5100000</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,22 +1614,22 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1">
-        <v>6000000</v>
+        <v>2000000</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="0"/>
-        <v>5100000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>150</v>
@@ -1650,10 +1647,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C54" s="1">
         <v>2000000</v>
@@ -1743,17 +1740,17 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C59" s="1">
-        <v>2000000</v>
+        <v>11500000</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="0"/>
-        <v>1700000</v>
+        <v>9775000</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1761,17 +1758,17 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C60" s="1">
-        <v>11500000</v>
+        <v>6890000</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="0"/>
-        <v>9775000</v>
+        <v>5856500</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1797,17 +1794,17 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C62" s="1">
-        <v>6890000</v>
+        <v>1099000</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="0"/>
-        <v>5856500</v>
+        <v>934150</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,17 +1812,17 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C63" s="1">
-        <v>1099000</v>
+        <v>3000</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" si="0"/>
-        <v>934150</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,17 +1830,17 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C64" s="1">
-        <v>3000</v>
+        <v>3998000</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>3398300</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,14 +1851,14 @@
         <v>200</v>
       </c>
       <c r="C65" s="1">
-        <v>3998000</v>
+        <v>19900</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="0"/>
-        <v>3398300</v>
+        <v>16915</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1872,14 +1869,14 @@
         <v>200</v>
       </c>
       <c r="C66" s="1">
-        <v>19900</v>
+        <v>800</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="0"/>
-        <v>16915</v>
+        <f t="shared" ref="E66:E94" si="1">C66-C66/100*15</f>
+        <v>680</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,17 +1884,18 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C67" s="1">
-        <v>800</v>
+        <f>14000/3</f>
+        <v>4666.666666666667</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E95" si="1">C67-C67/100*15</f>
-        <v>680</v>
+        <f t="shared" si="1"/>
+        <v>3966.666666666667</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1905,18 +1903,17 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="C68" s="1">
-        <f>14000/3</f>
-        <v>4666.666666666667</v>
+        <v>14000</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" si="1"/>
-        <v>3966.666666666667</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,17 +1921,18 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C69" s="1">
-        <v>14000</v>
+        <f>14000*2</f>
+        <v>28000</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" si="1"/>
-        <v>11900</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,18 +1940,17 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C70" s="1">
-        <f>14000*2</f>
-        <v>28000</v>
+        <v>15660000</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" s="2">
         <f t="shared" si="1"/>
-        <v>23800</v>
+        <v>13311000</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,17 +1958,17 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>1500</v>
+        <v>375</v>
       </c>
       <c r="C71" s="1">
-        <v>15660000</v>
+        <v>5700000</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" si="1"/>
-        <v>13311000</v>
+        <v>4845000</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,17 +1976,17 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="C72" s="1">
-        <v>5700000</v>
+        <v>15550000</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" s="2">
         <f t="shared" si="1"/>
-        <v>4845000</v>
+        <v>13217500</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,17 +1994,17 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="C73" s="1">
-        <v>15550000</v>
+        <v>69900</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" si="1"/>
-        <v>13217500</v>
+        <v>59415</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,17 +2012,17 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="C74" s="1">
-        <v>69900</v>
+        <v>16600000</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" si="1"/>
-        <v>59415</v>
+        <v>14110000</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2033,17 +2030,17 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="C75" s="1">
-        <v>16600000</v>
+        <v>7400000</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" si="1"/>
-        <v>14110000</v>
+        <v>6290000</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,17 +2048,17 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C76" s="1">
-        <v>7400000</v>
+        <v>12500000</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" si="1"/>
-        <v>6290000</v>
+        <v>10625000</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,14 +2069,14 @@
         <v>1000</v>
       </c>
       <c r="C77" s="1">
-        <v>12500000</v>
+        <v>11999000</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>10625000</v>
+        <v>10199150</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,14 +2087,14 @@
         <v>1000</v>
       </c>
       <c r="C78" s="1">
-        <v>11999000</v>
+        <v>10900000</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="1"/>
-        <v>10199150</v>
+        <v>9265000</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,17 +2102,17 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1">
-        <v>10900000</v>
+        <v>2666000</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="1"/>
-        <v>9265000</v>
+        <v>2266100</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,17 +2120,17 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C80" s="1">
-        <v>2666000</v>
+        <v>199000</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="1"/>
-        <v>2266100</v>
+        <v>169150</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,17 +2138,17 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C81" s="1">
-        <v>199000</v>
+        <v>4999000</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" si="1"/>
-        <v>169150</v>
+        <v>4249150</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,17 +2156,17 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1">
-        <v>4999000</v>
+        <v>410000</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="1"/>
-        <v>4249150</v>
+        <v>348500</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,17 +2174,17 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C83" s="1">
-        <v>410000</v>
+        <v>990000</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" si="1"/>
-        <v>348500</v>
+        <v>841500</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2195,17 +2192,17 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="C84" s="1">
-        <v>990000</v>
+        <v>19000000</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" si="1"/>
-        <v>841500</v>
+        <v>16150000</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2216,14 +2213,14 @@
         <v>1500</v>
       </c>
       <c r="C85" s="1">
-        <v>19000000</v>
+        <v>17999000</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" si="1"/>
-        <v>16150000</v>
+        <v>15299150</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2267,17 +2264,18 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1500</v>
+        <f>990/10</f>
+        <v>99</v>
       </c>
       <c r="C88" s="1">
-        <v>17999000</v>
+        <v>949900</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" si="1"/>
-        <v>15299150</v>
+        <v>807415</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2285,18 +2283,17 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <f>990/10</f>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C89" s="1">
-        <v>949900</v>
+        <v>8699</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" si="1"/>
-        <v>807415</v>
+        <v>7394.15</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2304,17 +2301,17 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C90" s="1">
-        <v>8699</v>
+        <v>564000</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" si="1"/>
-        <v>7394.15</v>
+        <v>479400</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,17 +2319,17 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="C91" s="1">
-        <v>564000</v>
+        <v>4999000</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" si="1"/>
-        <v>479400</v>
+        <v>4249150</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,17 +2337,17 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C92" s="1">
-        <v>4999000</v>
+        <v>11999000</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" si="1"/>
-        <v>4249150</v>
+        <v>10199150</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,14 +2358,14 @@
         <v>1000</v>
       </c>
       <c r="C93" s="1">
-        <v>11999000</v>
+        <v>9699000</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" si="1"/>
-        <v>10199150</v>
+        <v>8244150</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,33 +2373,15 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C94" s="1">
-        <v>9699000</v>
+        <v>15600000</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="1"/>
-        <v>8244150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>1500</v>
-      </c>
-      <c r="C95" s="1">
-        <v>15600000</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95" s="2">
         <f t="shared" si="1"/>
         <v>13260000</v>
       </c>

--- a/Nostale Vendetta Mall List.xlsx
+++ b/Nostale Vendetta Mall List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David1234\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E9931-06E4-4FF9-9D2B-53FF37B5AB06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DE23A6-E3B1-4352-9C97-5BF2FB70B067}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{211B6716-264D-47DB-8331-7592F27DE674}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>Item Name</t>
   </si>
@@ -192,15 +192,6 @@
   </si>
   <si>
     <t>Super Hair Gel</t>
-  </si>
-  <si>
-    <t>Pink Hair Dye</t>
-  </si>
-  <si>
-    <t>Light Green Hair dye</t>
-  </si>
-  <si>
-    <t>White Hair dye</t>
   </si>
   <si>
     <t>Light Blue hair dye</t>
@@ -674,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6392B59-4EA3-45F0-B9DB-A2E71E61FB29}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,10 +691,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E65" si="0">C3-C3/100*15</f>
+        <f t="shared" ref="E3:E62" si="0">C3-C3/100*15</f>
         <v>8500000</v>
       </c>
     </row>
@@ -1686,17 +1677,17 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C56" s="1">
-        <v>2000000</v>
+        <v>11500000</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="0"/>
-        <v>1700000</v>
+        <v>9775000</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,17 +1695,17 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C57" s="1">
-        <v>2000000</v>
+        <v>6890000</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="0"/>
-        <v>1700000</v>
+        <v>5856500</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,17 +1713,17 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C58" s="1">
-        <v>2000000</v>
+        <v>6890000</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="0"/>
-        <v>1700000</v>
+        <v>5856500</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,17 +1731,17 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C59" s="1">
-        <v>11500000</v>
+        <v>1099000</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="0"/>
-        <v>9775000</v>
+        <v>934150</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1761,14 +1752,14 @@
         <v>500</v>
       </c>
       <c r="C60" s="1">
-        <v>6890000</v>
+        <v>3000</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="0"/>
-        <v>5856500</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,17 +1767,17 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C61" s="1">
-        <v>6890000</v>
+        <v>3998000</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="0"/>
-        <v>5856500</v>
+        <v>3398300</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1794,17 +1785,17 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C62" s="1">
-        <v>1099000</v>
+        <v>19900</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="0"/>
-        <v>934150</v>
+        <v>16915</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1812,17 +1803,17 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C63" s="1">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="0"/>
-        <v>2550</v>
+        <f t="shared" ref="E63:E91" si="1">C63-C63/100*15</f>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,17 +1821,18 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C64" s="1">
-        <v>3998000</v>
+        <f>14000/3</f>
+        <v>4666.666666666667</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="0"/>
-        <v>3398300</v>
+        <f t="shared" si="1"/>
+        <v>3966.666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,17 +1840,17 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C65" s="1">
-        <v>19900</v>
+        <v>14000</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="0"/>
-        <v>16915</v>
+        <f t="shared" si="1"/>
+        <v>11900</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1866,17 +1858,18 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C66" s="1">
-        <v>800</v>
+        <f>14000*2</f>
+        <v>28000</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" ref="E66:E94" si="1">C66-C66/100*15</f>
-        <v>680</v>
+        <f t="shared" si="1"/>
+        <v>23800</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1884,18 +1877,17 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="C67" s="1">
-        <f>14000/3</f>
-        <v>4666.666666666667</v>
+        <v>15660000</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" si="1"/>
-        <v>3966.666666666667</v>
+        <v>13311000</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,17 +1895,17 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C68" s="1">
-        <v>14000</v>
+        <v>5700000</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" si="1"/>
-        <v>11900</v>
+        <v>4845000</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,18 +1913,17 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="C69" s="1">
-        <f>14000*2</f>
-        <v>28000</v>
+        <v>15550000</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" si="1"/>
-        <v>23800</v>
+        <v>13217500</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,17 +1931,17 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C70" s="1">
-        <v>15660000</v>
+        <v>69900</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2">
         <f t="shared" si="1"/>
-        <v>13311000</v>
+        <v>59415</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,17 +1949,17 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>375</v>
+        <v>1500</v>
       </c>
       <c r="C71" s="1">
-        <v>5700000</v>
+        <v>16600000</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" si="1"/>
-        <v>4845000</v>
+        <v>14110000</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,17 +1967,17 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C72" s="1">
-        <v>15550000</v>
+        <v>7400000</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2">
         <f t="shared" si="1"/>
-        <v>13217500</v>
+        <v>6290000</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,17 +1985,17 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="C73" s="1">
-        <v>69900</v>
+        <v>12500000</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" si="1"/>
-        <v>59415</v>
+        <v>10625000</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,17 +2003,17 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C74" s="1">
-        <v>16600000</v>
+        <v>11999000</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" si="1"/>
-        <v>14110000</v>
+        <v>10199150</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,17 +2021,17 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C75" s="1">
-        <v>7400000</v>
+        <v>10900000</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" si="1"/>
-        <v>6290000</v>
+        <v>9265000</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,17 +2039,17 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1">
-        <v>12500000</v>
+        <v>2666000</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" si="1"/>
-        <v>10625000</v>
+        <v>2266100</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2066,17 +2057,17 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C77" s="1">
-        <v>11999000</v>
+        <v>199000</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>10199150</v>
+        <v>169150</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,17 +2075,17 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C78" s="1">
-        <v>10900000</v>
+        <v>4999000</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="1"/>
-        <v>9265000</v>
+        <v>4249150</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,17 +2093,17 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1">
-        <v>2666000</v>
+        <v>410000</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="1"/>
-        <v>2266100</v>
+        <v>348500</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,14 +2114,14 @@
         <v>100</v>
       </c>
       <c r="C80" s="1">
-        <v>199000</v>
+        <v>990000</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="1"/>
-        <v>169150</v>
+        <v>841500</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,17 +2129,17 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="C81" s="1">
-        <v>4999000</v>
+        <v>19000000</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" si="1"/>
-        <v>4249150</v>
+        <v>16150000</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,17 +2147,17 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="C82" s="1">
-        <v>410000</v>
+        <v>17999000</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="1"/>
-        <v>348500</v>
+        <v>15299150</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,17 +2165,17 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="C83" s="1">
-        <v>990000</v>
+        <v>17999000</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" si="1"/>
-        <v>841500</v>
+        <v>15299150</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2195,14 +2186,14 @@
         <v>1500</v>
       </c>
       <c r="C84" s="1">
-        <v>19000000</v>
+        <v>17999000</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" si="1"/>
-        <v>16150000</v>
+        <v>15299150</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,17 +2201,18 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1500</v>
+        <f>990/10</f>
+        <v>99</v>
       </c>
       <c r="C85" s="1">
-        <v>17999000</v>
+        <v>949900</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" si="1"/>
-        <v>15299150</v>
+        <v>807415</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2228,17 +2220,17 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1500</v>
+        <v>75</v>
       </c>
       <c r="C86" s="1">
-        <v>17999000</v>
+        <v>8699</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" si="1"/>
-        <v>15299150</v>
+        <v>7394.15</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,17 +2238,17 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>1500</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1">
-        <v>17999000</v>
+        <v>564000</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" si="1"/>
-        <v>15299150</v>
+        <v>479400</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,18 +2256,17 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <f>990/10</f>
-        <v>99</v>
+        <v>500</v>
       </c>
       <c r="C88" s="1">
-        <v>949900</v>
+        <v>4999000</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" si="1"/>
-        <v>807415</v>
+        <v>4249150</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,17 +2274,17 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="C89" s="1">
-        <v>8699</v>
+        <v>11999000</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" si="1"/>
-        <v>7394.15</v>
+        <v>10199150</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,17 +2292,17 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="C90" s="1">
-        <v>564000</v>
+        <v>9699000</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" si="1"/>
-        <v>479400</v>
+        <v>8244150</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2319,69 +2310,15 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C91" s="1">
-        <v>4999000</v>
+        <v>15600000</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="1"/>
-        <v>4249150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>1000</v>
-      </c>
-      <c r="C92" s="1">
-        <v>11999000</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92" s="2">
-        <f t="shared" si="1"/>
-        <v>10199150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>1000</v>
-      </c>
-      <c r="C93" s="1">
-        <v>9699000</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" s="2">
-        <f t="shared" si="1"/>
-        <v>8244150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>1500</v>
-      </c>
-      <c r="C94" s="1">
-        <v>15600000</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" s="2">
         <f t="shared" si="1"/>
         <v>13260000</v>
       </c>

--- a/Nostale Vendetta Mall List.xlsx
+++ b/Nostale Vendetta Mall List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David1234\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidPC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DE23A6-E3B1-4352-9C97-5BF2FB70B067}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1D8A05-F41A-46CE-814C-782265CA0719}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{211B6716-264D-47DB-8331-7592F27DE674}"/>
   </bookViews>
@@ -19,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -667,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6392B59-4EA3-45F0-B9DB-A2E71E61FB29}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,8 +823,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <f>75/10</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>79000</v>

--- a/Nostale Vendetta Mall List.xlsx
+++ b/Nostale Vendetta Mall List.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidPC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C043B338-A795-447C-AA93-EEB1EF1E55C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443C65BC-51BB-4FED-A4BD-49F2FD0DF1B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{211B6716-264D-47DB-8331-7592F27DE674}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="1" xr2:uid="{211B6716-264D-47DB-8331-7592F27DE674}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Item Name</t>
   </si>
@@ -175,9 +176,6 @@
   </si>
   <si>
     <t>Morning Glory Hat</t>
-  </si>
-  <si>
-    <t>Old Gent's Hat</t>
   </si>
   <si>
     <t>Big-Ear Hair band</t>
@@ -664,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6392B59-4EA3-45F0-B9DB-A2E71E61FB29}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,18 +689,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -714,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f>C2-C2/100*15</f>
+        <f t="shared" ref="E2:E32" si="0">C2-C2/100*15</f>
         <v>2266100</v>
       </c>
       <c r="F2" s="3">
@@ -735,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f>C3-C3/100*15</f>
+        <f t="shared" si="0"/>
         <v>3060000</v>
       </c>
       <c r="F3" s="3">
@@ -756,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f>C4-C4/100*15</f>
+        <f t="shared" si="0"/>
         <v>2541500</v>
       </c>
       <c r="F4" s="3">
@@ -765,7 +763,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -777,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f>C5-C5/100*15</f>
+        <f t="shared" si="0"/>
         <v>934150</v>
       </c>
       <c r="F5" s="3">
@@ -798,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f>C6-C6/100*15</f>
+        <f t="shared" si="0"/>
         <v>4250000</v>
       </c>
       <c r="F6" s="3">
@@ -807,7 +805,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -819,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <f>C7-C7/100*15</f>
+        <f t="shared" si="0"/>
         <v>841500</v>
       </c>
       <c r="F7" s="3">
@@ -828,7 +826,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <f>990/10</f>
@@ -841,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <f>C8-C8/100*15</f>
+        <f t="shared" si="0"/>
         <v>807415</v>
       </c>
       <c r="F8" s="3">
@@ -863,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f>C9-C9/100*15</f>
+        <f t="shared" si="0"/>
         <v>73100</v>
       </c>
       <c r="F9" s="3">
@@ -884,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <f>C10-C10/100*15</f>
+        <f t="shared" si="0"/>
         <v>9690000</v>
       </c>
       <c r="F10" s="3">
@@ -905,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <f>C11-C11/100*15</f>
+        <f t="shared" si="0"/>
         <v>3740000</v>
       </c>
       <c r="F11" s="3">
@@ -926,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <f>C12-C12/100*15</f>
+        <f t="shared" si="0"/>
         <v>176800</v>
       </c>
       <c r="F12" s="3">
@@ -947,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <f>C13-C13/100*15</f>
+        <f t="shared" si="0"/>
         <v>1275000</v>
       </c>
       <c r="F13" s="3">
@@ -968,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f>C14-C14/100*15</f>
+        <f t="shared" si="0"/>
         <v>292400</v>
       </c>
       <c r="F14" s="3">
@@ -989,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <f>C15-C15/100*15</f>
+        <f t="shared" si="0"/>
         <v>286450</v>
       </c>
       <c r="F15" s="3">
@@ -998,7 +996,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>150</v>
@@ -1010,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <f>C16-C16/100*15</f>
+        <f t="shared" si="0"/>
         <v>59415</v>
       </c>
       <c r="F16" s="3">
@@ -1032,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <f>C17-C17/100*15</f>
+        <f t="shared" si="0"/>
         <v>1853</v>
       </c>
       <c r="F17" s="3">
@@ -1041,7 +1039,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>75</v>
@@ -1053,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <f>C18-C18/100*15</f>
+        <f t="shared" si="0"/>
         <v>7394.15</v>
       </c>
       <c r="F18" s="3">
@@ -1074,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <f>C19-C19/100*15</f>
+        <f t="shared" si="0"/>
         <v>977.5</v>
       </c>
       <c r="F19" s="3">
@@ -1083,7 +1081,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -1095,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <f>C20-C20/100*15</f>
+        <f t="shared" si="0"/>
         <v>16915</v>
       </c>
       <c r="F20" s="3">
@@ -1104,7 +1102,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>500</v>
@@ -1116,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <f>C21-C21/100*15</f>
+        <f t="shared" si="0"/>
         <v>2550</v>
       </c>
       <c r="F21" s="3">
@@ -1125,7 +1123,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -1137,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="2">
-        <f>C22-C22/100*15</f>
+        <f t="shared" si="0"/>
         <v>348500</v>
       </c>
       <c r="F22" s="3">
@@ -1158,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="2">
-        <f>C23-C23/100*15</f>
+        <f t="shared" si="0"/>
         <v>5525000</v>
       </c>
       <c r="F23" s="3">
@@ -1167,49 +1165,49 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B24">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="C24" s="1">
-        <v>6500000</v>
+        <v>15550000</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" s="2">
-        <f>C24-C24/100*15</f>
-        <v>5525000</v>
+        <f t="shared" si="0"/>
+        <v>13217500</v>
       </c>
       <c r="F24" s="3">
-        <v>18416.666666666668</v>
+        <v>17623.333333333332</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="C25" s="1">
-        <v>15550000</v>
+        <v>6000000</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" s="2">
-        <f>C25-C25/100*15</f>
-        <v>13217500</v>
+        <f t="shared" si="0"/>
+        <v>5100000</v>
       </c>
       <c r="F25" s="3">
-        <v>17623.333333333332</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -1221,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2">
-        <f>C26-C26/100*15</f>
+        <f t="shared" si="0"/>
         <v>5100000</v>
       </c>
       <c r="F26" s="3">
@@ -1230,7 +1228,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -1242,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2">
-        <f>C27-C27/100*15</f>
+        <f t="shared" si="0"/>
         <v>5100000</v>
       </c>
       <c r="F27" s="3">
@@ -1251,7 +1249,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>300</v>
@@ -1263,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2">
-        <f>C28-C28/100*15</f>
+        <f t="shared" si="0"/>
         <v>5100000</v>
       </c>
       <c r="F28" s="3">
@@ -1272,7 +1270,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>300</v>
@@ -1284,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="2">
-        <f>C29-C29/100*15</f>
+        <f t="shared" si="0"/>
         <v>5100000</v>
       </c>
       <c r="F29" s="3">
@@ -1293,7 +1291,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>300</v>
@@ -1305,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2">
-        <f>C30-C30/100*15</f>
+        <f t="shared" si="0"/>
         <v>5100000</v>
       </c>
       <c r="F30" s="3">
@@ -1326,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2">
-        <f>C31-C31/100*15</f>
+        <f t="shared" si="0"/>
         <v>5100000</v>
       </c>
       <c r="F31" s="3">
@@ -1335,70 +1333,70 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C32" s="1">
-        <v>6000000</v>
+        <v>3998000</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" s="2">
-        <f>C32-C32/100*15</f>
-        <v>5100000</v>
+        <f t="shared" si="0"/>
+        <v>3398300</v>
       </c>
       <c r="F32" s="3">
-        <v>17000</v>
+        <v>16991.5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
-        <v>3998000</v>
+        <v>890000</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" s="2">
-        <f>C33-C33/100*15</f>
-        <v>3398300</v>
+        <f t="shared" ref="E33:E64" si="1">C33-C33/100*15</f>
+        <v>756500</v>
       </c>
       <c r="F33" s="3">
-        <v>16991.5</v>
+        <v>15130</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C34" s="1">
-        <v>890000</v>
+        <v>8870000</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" s="2">
-        <f>C34-C34/100*15</f>
-        <v>756500</v>
+        <f t="shared" si="1"/>
+        <v>7539500</v>
       </c>
       <c r="F34" s="3">
-        <v>15130</v>
+        <v>15079</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>500</v>
@@ -1410,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2">
-        <f>C35-C35/100*15</f>
+        <f t="shared" si="1"/>
         <v>7539500</v>
       </c>
       <c r="F35" s="3">
@@ -1419,7 +1417,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>500</v>
@@ -1431,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2">
-        <f>C36-C36/100*15</f>
+        <f t="shared" si="1"/>
         <v>7539500</v>
       </c>
       <c r="F36" s="3">
@@ -1440,7 +1438,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>500</v>
@@ -1452,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="2">
-        <f>C37-C37/100*15</f>
+        <f t="shared" si="1"/>
         <v>7539500</v>
       </c>
       <c r="F37" s="3">
@@ -1461,49 +1459,49 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B38">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C38" s="1">
-        <v>8870000</v>
+        <v>4999000</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" s="2">
-        <f>C38-C38/100*15</f>
-        <v>7539500</v>
+        <f t="shared" si="1"/>
+        <v>4249150</v>
       </c>
       <c r="F38" s="3">
-        <v>15079</v>
+        <v>14163.833333333334</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1">
-        <v>4999000</v>
+        <v>2400000</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <f>C39-C39/100*15</f>
-        <v>4249150</v>
+        <f t="shared" si="1"/>
+        <v>2040000</v>
       </c>
       <c r="F39" s="3">
-        <v>14163.833333333334</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>150</v>
@@ -1515,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2">
-        <f>C40-C40/100*15</f>
+        <f t="shared" si="1"/>
         <v>2040000</v>
       </c>
       <c r="F40" s="3">
@@ -1524,65 +1522,65 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B41">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="C41" s="1">
-        <v>2400000</v>
+        <v>5700000</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" s="2">
-        <f>C41-C41/100*15</f>
-        <v>2040000</v>
+        <f t="shared" si="1"/>
+        <v>4845000</v>
       </c>
       <c r="F41" s="3">
-        <v>13600</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>375</v>
+        <v>700</v>
       </c>
       <c r="C42" s="1">
-        <v>5700000</v>
+        <v>10000000</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" s="2">
-        <f>C42-C42/100*15</f>
-        <v>4845000</v>
+        <f t="shared" si="1"/>
+        <v>8500000</v>
       </c>
       <c r="F42" s="3">
-        <v>12920</v>
+        <v>12142.857142857143</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B43">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C43" s="1">
-        <v>10000000</v>
+        <v>6890000</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" s="2">
-        <f>C43-C43/100*15</f>
-        <v>8500000</v>
+        <f t="shared" si="1"/>
+        <v>5856500</v>
       </c>
       <c r="F43" s="3">
-        <v>12142.857142857143</v>
+        <v>11713</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="2">
-        <f>C44-C44/100*15</f>
+        <f t="shared" si="1"/>
         <v>5856500</v>
       </c>
       <c r="F44" s="3">
@@ -1608,65 +1606,65 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B45">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C45" s="1">
-        <v>6890000</v>
+        <v>19000000</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" s="2">
-        <f>C45-C45/100*15</f>
-        <v>5856500</v>
+        <f t="shared" si="1"/>
+        <v>16150000</v>
       </c>
       <c r="F45" s="3">
-        <v>11713</v>
+        <v>10766.666666666666</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B46">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C46" s="1">
-        <v>19000000</v>
+        <v>12500000</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" s="2">
-        <f>C46-C46/100*15</f>
-        <v>16150000</v>
+        <f t="shared" si="1"/>
+        <v>10625000</v>
       </c>
       <c r="F46" s="3">
-        <v>10766.666666666666</v>
+        <v>10625</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B47">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C47" s="1">
-        <v>12500000</v>
+        <v>17999000</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" s="2">
-        <f>C47-C47/100*15</f>
-        <v>10625000</v>
+        <f t="shared" si="1"/>
+        <v>15299150</v>
       </c>
       <c r="F47" s="3">
-        <v>10625</v>
+        <v>10199.433333333332</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="2">
-        <f>C48-C48/100*15</f>
+        <f t="shared" si="1"/>
         <v>15299150</v>
       </c>
       <c r="F48" s="3">
@@ -1704,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="2">
-        <f>C49-C49/100*15</f>
+        <f t="shared" si="1"/>
         <v>15299150</v>
       </c>
       <c r="F49" s="3">
@@ -1713,28 +1711,28 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B50">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C50" s="1">
-        <v>17999000</v>
+        <v>11999000</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" s="2">
-        <f>C50-C50/100*15</f>
-        <v>15299150</v>
+        <f t="shared" si="1"/>
+        <v>10199150</v>
       </c>
       <c r="F50" s="3">
-        <v>10199.433333333332</v>
+        <v>10199.15</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>1000</v>
@@ -1746,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="2">
-        <f>C51-C51/100*15</f>
+        <f t="shared" si="1"/>
         <v>10199150</v>
       </c>
       <c r="F51" s="3">
@@ -1755,188 +1753,188 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B52">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C52" s="1">
-        <v>11999000</v>
+        <v>16600000</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" s="2">
-        <f>C52-C52/100*15</f>
-        <v>10199150</v>
+        <f t="shared" si="1"/>
+        <v>14110000</v>
       </c>
       <c r="F52" s="3">
-        <v>10199.15</v>
+        <v>9406.6666666666661</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>1500</v>
       </c>
       <c r="C53" s="1">
-        <v>16600000</v>
+        <v>16400000</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" s="2">
-        <f>C53-C53/100*15</f>
-        <v>14110000</v>
+        <f t="shared" si="1"/>
+        <v>13940000</v>
       </c>
       <c r="F53" s="3">
-        <v>9406.6666666666661</v>
+        <v>9293.3333333333339</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B54">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C54" s="1">
-        <v>16400000</v>
+        <v>10900000</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" s="2">
-        <f>C54-C54/100*15</f>
-        <v>13940000</v>
+        <f t="shared" si="1"/>
+        <v>9265000</v>
       </c>
       <c r="F54" s="3">
-        <v>9293.3333333333339</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B55">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C55" s="1">
-        <v>10900000</v>
+        <v>5400000</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" s="2">
-        <f>C55-C55/100*15</f>
-        <v>9265000</v>
+        <f t="shared" si="1"/>
+        <v>4590000</v>
       </c>
       <c r="F55" s="3">
-        <v>9265</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C56" s="1">
-        <v>5400000</v>
+        <v>15660000</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" s="2">
-        <f>C56-C56/100*15</f>
-        <v>4590000</v>
+        <f t="shared" si="1"/>
+        <v>13311000</v>
       </c>
       <c r="F56" s="3">
-        <v>9180</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B57">
         <v>1500</v>
       </c>
       <c r="C57" s="1">
-        <v>15660000</v>
+        <v>15600000</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" s="2">
-        <f>C57-C57/100*15</f>
-        <v>13311000</v>
+        <f t="shared" si="1"/>
+        <v>13260000</v>
       </c>
       <c r="F57" s="3">
-        <v>8874</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C58" s="1">
-        <v>15600000</v>
+        <v>10100000</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" s="2">
-        <f>C58-C58/100*15</f>
-        <v>13260000</v>
+        <f t="shared" si="1"/>
+        <v>8585000</v>
       </c>
       <c r="F58" s="3">
-        <v>8840</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C59" s="1">
-        <v>10100000</v>
+        <v>15000000</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" s="2">
-        <f>C59-C59/100*15</f>
-        <v>8585000</v>
+        <f t="shared" si="1"/>
+        <v>12750000</v>
       </c>
       <c r="F59" s="3">
-        <v>8585</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B60">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="C60" s="1">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" s="2">
-        <f>C60-C60/100*15</f>
-        <v>12750000</v>
+        <f t="shared" si="1"/>
+        <v>1700000</v>
       </c>
       <c r="F60" s="3">
         <v>8500</v>
@@ -1944,366 +1942,366 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B61">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C61" s="1">
-        <v>2000000</v>
+        <v>4999000</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" s="2">
-        <f>C61-C61/100*15</f>
-        <v>1700000</v>
+        <f t="shared" si="1"/>
+        <v>4249150</v>
       </c>
       <c r="F61" s="3">
-        <v>8500</v>
+        <v>8498.2999999999993</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C62" s="1">
-        <v>4999000</v>
+        <v>9699000</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" s="2">
-        <f>C62-C62/100*15</f>
-        <v>4249150</v>
+        <f t="shared" si="1"/>
+        <v>8244150</v>
       </c>
       <c r="F62" s="3">
-        <v>8498.2999999999993</v>
+        <v>8244.15</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="C63" s="1">
-        <v>9699000</v>
+        <v>3500000</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" s="2">
-        <f>C63-C63/100*15</f>
-        <v>8244150</v>
+        <f t="shared" si="1"/>
+        <v>2975000</v>
       </c>
       <c r="F63" s="3">
-        <v>8244.15</v>
+        <v>7933.333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="C64" s="1">
-        <v>3500000</v>
+        <v>1000000</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" s="2">
-        <f>C64-C64/100*15</f>
-        <v>2975000</v>
+        <f t="shared" si="1"/>
+        <v>850000</v>
       </c>
       <c r="F64" s="3">
-        <v>7933.333333333333</v>
+        <v>5666.666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B65">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="C65" s="1">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" s="2">
-        <f>C65-C65/100*15</f>
-        <v>850000</v>
+        <f t="shared" ref="E65:E90" si="2">C65-C65/100*15</f>
+        <v>3400000</v>
       </c>
       <c r="F65" s="3">
-        <v>5666.666666666667</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B66">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" s="2">
-        <f>C66-C66/100*15</f>
-        <v>3400000</v>
+        <f t="shared" si="2"/>
+        <v>425000</v>
       </c>
       <c r="F66" s="3">
-        <v>3400</v>
+        <v>2833.3333333333335</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B67">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="C67" s="1">
-        <v>500000</v>
+        <v>999999</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" s="2">
-        <f>C67-C67/100*15</f>
-        <v>425000</v>
+        <f t="shared" si="2"/>
+        <v>849999.15</v>
       </c>
       <c r="F67" s="3">
-        <v>2833.3333333333335</v>
+        <v>2428.569</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C68" s="1">
-        <v>999999</v>
+        <v>199000</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" s="2">
-        <f>C68-C68/100*15</f>
-        <v>849999.15</v>
+        <f t="shared" si="2"/>
+        <v>169150</v>
       </c>
       <c r="F68" s="3">
-        <v>2428.569</v>
+        <v>1691.5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C69" s="1">
-        <v>199000</v>
+        <v>20000</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" s="2">
-        <f>C69-C69/100*15</f>
-        <v>169150</v>
+        <f t="shared" si="2"/>
+        <v>17000</v>
       </c>
       <c r="F69" s="3">
-        <v>1691.5</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B70">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C70" s="1">
-        <v>20000</v>
+        <f>14000*2</f>
+        <v>28000</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" s="2">
-        <f>C70-C70/100*15</f>
-        <v>17000</v>
+        <f t="shared" si="2"/>
+        <v>23800</v>
       </c>
       <c r="F70" s="3">
-        <v>113.33333333333333</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B71">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="C71" s="1">
-        <f>14000*2</f>
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" s="2">
-        <f>C71-C71/100*15</f>
-        <v>23800</v>
+        <f t="shared" si="2"/>
+        <v>11900</v>
       </c>
       <c r="F71" s="3">
-        <v>47.6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="C72" s="1">
-        <v>14000</v>
+        <f>14000/3</f>
+        <v>4666.666666666667</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" s="2">
-        <f>C72-C72/100*15</f>
-        <v>11900</v>
+        <f t="shared" si="2"/>
+        <v>3966.666666666667</v>
       </c>
       <c r="F72" s="3">
-        <v>34</v>
+        <v>26.444444444444446</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B73">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C73" s="1">
-        <f>14000/3</f>
-        <v>4666.666666666667</v>
+        <v>800</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" s="2">
-        <f>C73-C73/100*15</f>
-        <v>3966.666666666667</v>
+        <f t="shared" si="2"/>
+        <v>680</v>
       </c>
       <c r="F73" s="3">
-        <v>26.444444444444446</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C74" s="1">
-        <v>800</v>
+        <v>2400000</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2">
-        <f>C74-C74/100*15</f>
-        <v>680</v>
+        <f t="shared" si="2"/>
+        <v>2040000</v>
       </c>
       <c r="F74" s="3">
-        <v>3.4</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B75">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="C75" s="1">
-        <v>2400000</v>
+        <v>12000000</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" s="2">
-        <f>C75-C75/100*15</f>
-        <v>2040000</v>
+        <f t="shared" si="2"/>
+        <v>10200000</v>
       </c>
       <c r="F75" s="3">
-        <v>20400</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>750</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1">
-        <v>12000000</v>
+        <v>564000</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" s="2">
-        <f>C76-C76/100*15</f>
-        <v>10200000</v>
+        <f t="shared" si="2"/>
+        <v>479400</v>
       </c>
       <c r="F76" s="3">
-        <v>13600</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B77">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C77" s="1">
-        <v>564000</v>
+        <v>2000000</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77" s="2">
-        <f>C77-C77/100*15</f>
-        <v>479400</v>
+        <f t="shared" si="2"/>
+        <v>1700000</v>
       </c>
       <c r="F77" s="3">
-        <v>11985</v>
+        <v>11333.333333333334</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B78">
         <v>150</v>
@@ -2315,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="2">
-        <f>C78-C78/100*15</f>
+        <f t="shared" si="2"/>
         <v>1700000</v>
       </c>
       <c r="F78" s="3">
@@ -2324,149 +2322,149 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B79">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="C79" s="1">
-        <v>2000000</v>
+        <v>9999999</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" s="2">
-        <f>C79-C79/100*15</f>
-        <v>1700000</v>
+        <f t="shared" si="2"/>
+        <v>8499999.1500000004</v>
       </c>
       <c r="F79" s="3">
-        <v>11333.333333333334</v>
+        <v>11333.332200000001</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B80">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="C80" s="1">
-        <v>9999999</v>
+        <v>11500000</v>
       </c>
       <c r="D80">
         <v>3</v>
       </c>
       <c r="E80" s="2">
-        <f>C80-C80/100*15</f>
-        <v>8499999.1500000004</v>
+        <f t="shared" si="2"/>
+        <v>9775000</v>
       </c>
       <c r="F80" s="3">
-        <v>11333.332200000001</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B81">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C81" s="1">
-        <v>11500000</v>
+        <v>7400000</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
       <c r="E81" s="2">
-        <f>C81-C81/100*15</f>
-        <v>9775000</v>
+        <f t="shared" si="2"/>
+        <v>6290000</v>
       </c>
       <c r="F81" s="3">
-        <v>9775</v>
+        <v>8985.7142857142862</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B82">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="C82" s="1">
-        <v>7400000</v>
+        <v>1990000</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82" s="2">
-        <f>C82-C82/100*15</f>
-        <v>6290000</v>
+        <f t="shared" si="2"/>
+        <v>1691500</v>
       </c>
       <c r="F82" s="3">
-        <v>8985.7142857142862</v>
+        <v>8457.5</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C83" s="1">
-        <v>1990000</v>
+        <v>79000</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83" s="2">
-        <f>C83-C83/100*15</f>
-        <v>1691500</v>
+        <f t="shared" si="2"/>
+        <v>67150</v>
       </c>
       <c r="F83" s="3">
-        <v>8457.5</v>
+        <v>8393.75</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="C84" s="1">
-        <v>79000</v>
+        <v>4800000</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
       <c r="E84" s="2">
-        <f>C84-C84/100*15</f>
-        <v>67150</v>
+        <f t="shared" si="2"/>
+        <v>4080000</v>
       </c>
       <c r="F84" s="3">
-        <v>8393.75</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B85">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C85" s="1">
-        <v>4800000</v>
+        <v>2000000</v>
       </c>
       <c r="D85">
         <v>3</v>
       </c>
       <c r="E85" s="2">
-        <f>C85-C85/100*15</f>
-        <v>4080000</v>
+        <f t="shared" si="2"/>
+        <v>1700000</v>
       </c>
       <c r="F85" s="3">
-        <v>8160</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2483,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="2">
-        <f>C86-C86/100*15</f>
+        <f t="shared" si="2"/>
         <v>1700000</v>
       </c>
       <c r="F86" s="3">
@@ -2492,49 +2490,49 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="C87" s="1">
-        <v>2000000</v>
+        <v>11400000</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" s="2">
-        <f>C87-C87/100*15</f>
-        <v>1700000</v>
+        <f t="shared" si="2"/>
+        <v>9690000</v>
       </c>
       <c r="F87" s="3">
-        <v>6800</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B88">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="C88" s="1">
-        <v>11400000</v>
+        <v>1800000</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" s="2">
-        <f>C88-C88/100*15</f>
-        <v>9690000</v>
+        <f t="shared" si="2"/>
+        <v>1530000</v>
       </c>
       <c r="F88" s="3">
-        <v>6460</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B89">
         <v>500</v>
@@ -2546,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="2">
-        <f>C89-C89/100*15</f>
+        <f t="shared" si="2"/>
         <v>1530000</v>
       </c>
       <c r="F89" s="3">
@@ -2555,51 +2553,284 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B90">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C90" s="1">
-        <v>1800000</v>
+        <v>260000</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
       <c r="E90" s="2">
-        <f>C90-C90/100*15</f>
-        <v>1530000</v>
+        <f t="shared" si="2"/>
+        <v>221000</v>
       </c>
       <c r="F90" s="3">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91">
-        <v>150</v>
-      </c>
-      <c r="C91" s="1">
-        <v>260000</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91" s="2">
-        <f>C91-C91/100*15</f>
-        <v>221000</v>
-      </c>
-      <c r="F91" s="3">
         <v>1473.3333333333333</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F96">
-    <sortCondition ref="D2:D96"/>
+  <sortState ref="A2:F95">
+    <sortCondition ref="D2:D95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58308B7-09B7-42FC-B724-7BCDBF74844C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2666000</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E11" si="0">C2-C2/100*15</f>
+        <v>2266100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15107.333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>3060000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2990000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>2541500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>410000</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>348500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>34850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>5525000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>18416.666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>750</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15550000</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>13217500</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17623.333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1099000</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>934150</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9341.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>4250000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>990000</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>841500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11">
+        <f>990/10</f>
+        <v>99</v>
+      </c>
+      <c r="C11" s="1">
+        <v>949900</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>807415</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8155.7070707070707</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>